--- a/data/EE.xlsx
+++ b/data/EE.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,7 +408,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FConcurrent: EE 151.</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>EE 151.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -410,12 +440,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MATH 142 or equivalent. Recommended: EE 111/151.</t>
+          <t>MATH 142 or equivalent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>F, W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>EE 111/151.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W </t>
         </is>
       </c>
     </row>
@@ -432,12 +477,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MATH 142. Concurrent: EE 143. Recommended: EE 111, EE 151; PHYS 133.</t>
+          <t>MATH 142.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>EE 143.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>EE 111, EE 151; PHYS 133.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP  </t>
         </is>
       </c>
     </row>
@@ -454,10 +514,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>An orientation course in student's major (EE 111 and EE 151; or CPE 100) and CPE/CSC 101.</t>
+          <t>An orientation course in student's major (EE 111 and EE 151; or CPE 100) and CPE/CSC 101.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -476,12 +551,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MATH 142. Concurrent: EE 113. Recommended: EE 111, EE 151; PHYS 133.</t>
+          <t>MATH 142.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>EE 113.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>EE 111, EE 151; PHYS 133.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP  </t>
         </is>
       </c>
     </row>
@@ -503,7 +593,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FConcurrent: EE 111.</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>EE 111.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -525,6 +630,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -542,10 +662,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MATH 244, PHYS 133.</t>
+          <t>MATH 244, PHYS 133.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -564,12 +699,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EE 112 or EE 113. Prerequisite or Concurrent: PHYS 133, MATH 244. Concurrent: EE 241.</t>
+          <t>EE 112 or EE 113. Prerequisite or</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>PHYS 133, MATH 244. EE 241.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP  </t>
         </is>
       </c>
     </row>
@@ -586,12 +736,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MATH 244, EE 211. Concurrent: EE 242.</t>
+          <t>MATH 244, EE 211.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>EE 242.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -608,12 +773,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BMED 355; or EE 212 and EE 242. Recommended: MATH 241.</t>
+          <t>BMED 355; or EE 212 and EE 242.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>MATH 241.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -630,10 +810,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CPE/EE 133.</t>
+          <t>CPE/EE 133.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -652,12 +847,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EE 112 or EE 113; EE 151 for EE students. Prerequisite or concurrent: MATH 244; PHYS 133. Concurrent: EE 211.</t>
+          <t>EE 112 or EE 113; EE 151 for EE students. Prerequisite or MATH 244; PHYS 133.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>EE 211.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -674,12 +884,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MATH 244, EE 241 or consent of department chair. Concurrent: EE 212.</t>
+          <t>MATH 244, EE 241 or consent of department chair.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>EE 212.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -701,7 +926,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>F,W,SP,SUConcurrent: EE 201.</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>EE 201.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>F,W,SP,SU</t>
         </is>
       </c>
     </row>
@@ -718,12 +958,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>EE 212 and EE 242; or EE 201 and EE 251. Concurrent: EE 295.</t>
+          <t>EE 212 and EE 242; or EE 201 and EE 251.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>F,W,SP,SU</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>EE 295.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F,W,SP,SU </t>
         </is>
       </c>
     </row>
@@ -745,6 +1000,21 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -767,6 +1037,21 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -784,12 +1069,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EE 212 &amp; EE 242 or EE 201 &amp; EE 251. Concurrent: EE 255.</t>
+          <t>EE 212 &amp; EE 242 or EE 201 &amp; EE 251.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>F,W,SP,SU</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>EE 255.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F,W,SP,SU </t>
         </is>
       </c>
     </row>
@@ -806,12 +1106,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>EE 228. Concurrent: EE 342. Recommended: EE 368.</t>
+          <t>EE 228.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>EE 342.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>EE 368.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W, SP  </t>
         </is>
       </c>
     </row>
@@ -828,12 +1143,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CHEM 124, EE 212 &amp; EE 242, EE 143 or IME 156 or IME 458, PHYS 211. Concurrent: EE 346.</t>
+          <t>CHEM 124, EE 212 &amp; EE 242, EE 143 or IME 156 or IME 458, PHYS 211.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>EE 346.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -850,12 +1180,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CPE/EE 133, EE 306 and EE 346. Corequisite: CPE/EE 233. Concurrent: EE 347.</t>
+          <t>CPE/EE 133, EE 306 and EE 346.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>CPE/EE 233.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>EE 347.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP  </t>
         </is>
       </c>
     </row>
@@ -872,12 +1217,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EE 302 &amp; EE 342, EE 307 &amp; EE 347. Concurrent: EE 348.</t>
+          <t>EE 302 &amp; EE 342, EE 307 &amp; EE 347.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>F, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>EE 348.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, SP </t>
         </is>
       </c>
     </row>
@@ -894,10 +1254,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>STAT 350.</t>
+          <t>STAT 350.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -916,10 +1291,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>EE 201 or BRAE 216 for BRAE majors.</t>
+          <t>EE 201 or BRAE 216 for BRAE majors.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -938,12 +1328,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of GE Area B1 with a grade of C- or better in at least one of the courses; and completion of GE Areas B2, B3, and B4. Recommended: MATH 118.</t>
+          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of GE Area B1 with a grade of C- or better in at least one of the courses; and completion of GE Areas B2, B3, and B4.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>MATH 118.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -960,12 +1365,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BMED 355 or EE 228. Concurrent: CPE/EE 368.</t>
+          <t>BMED 355 or EE 228.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>F, W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>CPE/EE 368.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W </t>
         </is>
       </c>
     </row>
@@ -982,10 +1402,25 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EE 307 &amp; EE 347, EE 229 &amp; EE 269 or CPE/EE 233.</t>
+          <t>EE 307 &amp; EE 347, EE 229 &amp; EE 269 or CPE/EE 233.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -1004,12 +1439,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EE 201 and EE 251; or EE 212 and EE 242; and MATH 241. Concurrent: EE 375.</t>
+          <t>EE 201 and EE 251; or EE 212 and EE 242; and MATH 241.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>F, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>EE 375.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, SP </t>
         </is>
       </c>
     </row>
@@ -1026,10 +1476,25 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CPE/EE 233.</t>
+          <t>CPE/EE 233.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1048,12 +1513,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EE 228. Concurrent: EE 302. Recommended: EE 368.</t>
+          <t>EE 228.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>EE 302.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>EE 368.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W, SP  </t>
         </is>
       </c>
     </row>
@@ -1070,12 +1550,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CHEM 124, EE 212 &amp; EE 242, EE 143 or IME 156 or IME 458, PHYS 211. Concurrent: EE 306. Recommended: ENGL 134.</t>
+          <t>CHEM 124, EE 212 &amp; EE 242, EE 143 or IME 156 or IME 458, PHYS 211.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>EE 306.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>ENGL 134.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP  </t>
         </is>
       </c>
     </row>
@@ -1092,12 +1587,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CPE/EE 133, EE 306 and EE 346. Corequisite: CPE/EE 233. Concurrent: EE 307.</t>
+          <t>CPE/EE 133, EE 306 and EE 346.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>CPE/EE 233.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>EE 307.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP  </t>
         </is>
       </c>
     </row>
@@ -1114,12 +1624,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>EE 302 &amp; EE 342, EE 307 &amp; EE 347. Concurrent: EE 308.</t>
+          <t>EE 302 &amp; EE 342, EE 307 &amp; EE 347.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>F, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>EE 308.</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, SP </t>
         </is>
       </c>
     </row>
@@ -1136,12 +1661,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>EE 251 or BRAE 216 for BRAE majors. Concurrent: EE 321.</t>
+          <t>EE 251 or BRAE 216 for BRAE majors.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>F,W,SP,SU</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>EE 321.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F,W,SP,SU </t>
         </is>
       </c>
     </row>
@@ -1158,12 +1698,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BMED 355 or EE 228. Concurrent: CPE/EE 328.</t>
+          <t>BMED 355 or EE 228.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>F, W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>CPE/EE 328.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W </t>
         </is>
       </c>
     </row>
@@ -1185,7 +1740,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>F, SPConcurrent: EE 335.</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>EE 335.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>F, SP</t>
         </is>
       </c>
     </row>
@@ -1207,6 +1777,21 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -1224,10 +1809,25 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>EE 335.</t>
+          <t>EE 335.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -1246,12 +1846,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>EE 335 or PHYS 323. Concurrent: EE 443.</t>
+          <t>EE 335 or PHYS 323.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>EE 443.</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -1268,12 +1883,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>EE 308 &amp; EE 348, EE 335. Concurrent: EE 445.</t>
+          <t>EE 308 &amp; EE 348, EE 335.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>EE 445.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -1290,10 +1920,25 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>EE 335, EE 255 &amp; EE 295.</t>
+          <t>EE 335, EE 255 &amp; EE 295.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1312,10 +1957,25 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>EE 406.</t>
+          <t>EE 406.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1334,12 +1994,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>EE 308 &amp; EE 348; CPE/EE 328 &amp; CPE/EE 368, or CPE 327 &amp; CPE 367; CPE/EE 329 or CPE/EE 336 or CPE 316. Concurrent: EE 449.</t>
+          <t>EE 308 &amp; EE 348; CPE/EE 328 &amp; CPE/EE 368, or CPE 327 &amp; CPE 367; CPE/EE 329 or CPE/EE 336 or CPE 316.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>F, W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>EE 449.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W </t>
         </is>
       </c>
     </row>
@@ -1356,10 +2031,25 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>EE 308 and EE 348, or EE 321 and consent of instructor.</t>
+          <t>EE 308 and EE 348, or EE 321 and consent of instructor.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1378,10 +2068,25 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EE 410.</t>
+          <t>EE 410.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1400,12 +2105,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>EE 314, EE 409 &amp; EE 449. Concurrent: EE 452.</t>
+          <t>EE 314, EE 409 &amp; EE 449.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>EE 452.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -1422,10 +2142,25 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CSC 101, EE 409 and EE 449.</t>
+          <t>CSC 101, EE 409 and EE 449.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1444,10 +2179,25 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>EE/CPE 329 or EE/CPE 336 or CSC/CPE 357 or ME 305.</t>
+          <t>EE/CPE 329 or EE/CPE 336 or CSC/CPE 357 or ME 305.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1466,10 +2216,25 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>EE 314, CPE 327 or EE 328.</t>
+          <t>EE 314, CPE 327 or EE 328.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1488,10 +2253,25 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>EE 314; EE 328 or CPE 327.</t>
+          <t>EE 314; EE 328 or CPE 327.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1510,10 +2290,25 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>EE 255 &amp; EE 295.</t>
+          <t>EE 255 &amp; EE 295.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1532,12 +2327,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>EE 335 or PHYS 323. Concurrent: EE 458.</t>
+          <t>EE 335 or PHYS 323.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>EE 458.</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -1554,12 +2364,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CSC 101 or CSC 231; EE 328 and EE 368, or CPE 327 and CPE 367. Concurrent: EE 459.</t>
+          <t>CSC 101 or CSC 231; EE 328 and EE 368, or CPE 327 and CPE 367.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>EE 459.</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -1576,10 +2401,25 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CHEM 124; EE 255 and EE 295.</t>
+          <t>CHEM 124; EE 255 and EE 295.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1598,10 +2438,25 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>EE 347 or MATE 340 or CHEM 319 or PHYS 340.</t>
+          <t>EE 347 or MATE 340 or CHEM 319 or PHYS 340.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -1620,10 +2475,25 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>BMED 212 or MATE 210.</t>
+          <t>BMED 212 or MATE 210.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1642,10 +2512,25 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MATH 244; senior or graduate standing in engineering.</t>
+          <t>MATH 244; senior or graduate standing in engineering.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1664,12 +2549,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>EE 409 &amp; EE 449. Concurrent: EE 455.</t>
+          <t>EE 409 &amp; EE 449.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>EE 455.</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -1686,10 +2586,25 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CPE 327 or CPE/CSC 357 or EE 328 or ME 305.</t>
+          <t>CPE 327 or CPE/CSC 357 or EE 328 or ME 305.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1708,12 +2623,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>EE 307 and EE 347. Recommended: EE 308 and EE 348, for students interested in analog design.</t>
+          <t>EE 307 and EE 347.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>EE 308 and EE 348, for students interested in analog design.</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -1730,12 +2660,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>EE 302 and EE 342; or CPE 327 and CPE 367. Concurrent: CPE/EE 472. Recommended: EE 328 and EE 368.</t>
+          <t>EE 302 and EE 342; or CPE 327 and CPE 367.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>CPE/EE 472.</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>EE 328 and EE 368.</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F  </t>
         </is>
       </c>
     </row>
@@ -1752,10 +2697,25 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>EE 255 and EE 295.</t>
+          <t>EE 255 and EE 295.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1779,6 +2739,21 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -1796,10 +2771,25 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CPE/EE 329 or CPE/EE 336.</t>
+          <t>CPE/EE 329 or CPE/EE 336.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1818,12 +2808,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>EE 335, EE 314. Concurrent: EE 480.</t>
+          <t>EE 335, EE 314.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>EE 480.</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -1840,10 +2845,25 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CPE/EE 329 or CPE/EE 336 or CPE 316.</t>
+          <t>CPE/EE 329 or CPE/EE 336 or CPE 316.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1862,12 +2882,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>EE 335 or PHYS 323. Concurrent: EE 403.</t>
+          <t>EE 335 or PHYS 323.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>EE 403.</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -1884,10 +2919,25 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>EE 406.</t>
+          <t>EE 406.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1906,12 +2956,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>EE 308 &amp; EE 348, EE 335. Corequisite: EE 405.</t>
+          <t>EE 308 &amp; EE 348, EE 335.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>EE 405.</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -1928,12 +2993,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CPE/EE 329 or CPE/EE 336 or CPE 316. Recommended: STAT 350.</t>
+          <t>CPE/EE 329 or CPE/EE 336 or CPE 316.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>STAT 350.</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -1950,10 +3030,25 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>EE/CPE 329 or EE/CPE 336 or CPE 316 or ME 305.</t>
+          <t>EE/CPE 329 or EE/CPE 336 or CPE 316 or ME 305.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1972,12 +3067,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>EE 308 &amp; EE 348; CPE/EE 328 &amp; CPE/EE 368, or CPE 327 &amp; CPE 367; CPE/EE 329 or CPE/EE 336 or CPE 316. Concurrent: EE 409.</t>
+          <t>EE 308 &amp; EE 348; CPE/EE 328 &amp; CPE/EE 368, or CPE 327 &amp; CPE 367; CPE/EE 329 or CPE/EE 336 or CPE 316.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>F, W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>EE 409.</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W </t>
         </is>
       </c>
     </row>
@@ -1994,10 +3104,25 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>one of the following: PHYS 104; PHYS 118; PHYS 121; or PHYS 141; and junior standing.</t>
+          <t>one of the PHYS 104; PHYS 118; PHYS 121; or PHYS 141; and junior standing.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2016,12 +3141,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>EE 314, EE 409 &amp; EE 449. Concurrent: EE 412.</t>
+          <t>EE 314, EE 409 &amp; EE 449.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>EE 412.</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -2038,12 +3178,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>EE 409 &amp; EE 449. Concurrent: EE 425.</t>
+          <t>EE 409 &amp; EE 449.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>EE 425.</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -2060,10 +3215,25 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>EE 314; EE 328 &amp; EE 368 or CPE 327 &amp; CPE 367.</t>
+          <t>EE 314; EE 328 &amp; EE 368 or CPE 327 &amp; CPE 367.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2087,7 +3257,22 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SPConcurrent: EE 418.</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>EE 418.</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>SP</t>
         </is>
       </c>
     </row>
@@ -2104,12 +3289,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CSC 101 or CSC 231; CPE 327 and CPE 367 or EE 328 and EE 368. Concurrent: EE 419.</t>
+          <t>CSC 101 or CSC 231; CPE 327 and CPE 367 or EE 328 and EE 368.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>EE 419.</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -2126,12 +3326,27 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>EE 314, EE 335. Corequisite: EE 409 &amp; EE 449.</t>
+          <t>EE 314, EE 335.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>F, W</t>
+          <t>EE 409 &amp; EE 449.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W </t>
         </is>
       </c>
     </row>
@@ -2148,10 +3363,25 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>EE 409, EE 449 and EE 460.</t>
+          <t>EE 409, EE 449 and EE 460.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -2170,10 +3400,25 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>EE 461.</t>
+          <t>EE 461.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -2192,10 +3437,25 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>EE 409, EE 449 and EE 460.</t>
+          <t>EE 409, EE 449 and EE 460.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -2214,10 +3474,25 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>EE 463.</t>
+          <t>EE 463.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -2241,6 +3516,21 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2263,6 +3553,21 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2285,7 +3590,22 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>FConcurrent: CPE/EE 432.</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>CPE/EE 432.</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -2302,10 +3622,25 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CPE/EE 328 and CPE/EE 368, or CPE 327 and CPE 367; EE 314.</t>
+          <t>CPE/EE 328 and CPE/EE 368, or CPE 327 and CPE 367; EE 314.</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -2324,12 +3659,27 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>EE 335, EE 314. Concurrent: EE 440.</t>
+          <t>EE 335, EE 314.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>EE 440.</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -2351,6 +3701,21 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -2368,10 +3733,25 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Two consecutive quarters of EE 494 immediately preceding EE 495; sophomore standing and consent of instructor.</t>
+          <t>Two consecutive quarters of EE 494 immediately preceding EE 495; sophomore standing and consent of instructor.</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -2395,6 +3775,21 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -2412,10 +3807,25 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>EE 402 or equivalent.</t>
+          <t>EE 402 or equivalent.</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2434,10 +3844,25 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>EE 314; and EE 328 or CPE 327; or graduate standing.</t>
+          <t>EE 314; and EE 328 or CPE 327; or graduate standing.</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -2461,6 +3886,21 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -2478,10 +3918,25 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>EE 255 or equivalent, and graduate standing or consent of instructor.</t>
+          <t>EE 255 or equivalent, and graduate standing or consent of instructor.</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2500,10 +3955,25 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>EE 302 or equivalent, and graduate standing or consent of instructor.</t>
+          <t>EE 302 or equivalent, and graduate standing or consent of instructor.</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2522,10 +3992,25 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>EE 513 or equivalent, EE 328 or similar course on discrete-time linear systems.</t>
+          <t>EE 513 or equivalent, EE 328 or similar course on discrete-time linear systems.</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -2544,10 +4029,25 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>EE 314 or equivalent, and graduate standing or consent of instructor.</t>
+          <t>EE 314 or equivalent, and graduate standing or consent of instructor.</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -2566,10 +4066,25 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>STAT 312 or STAT 350.</t>
+          <t>STAT 312 or STAT 350.</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -2588,10 +4103,25 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>EE 406 and graduate standing.</t>
+          <t>EE 406 and graduate standing.</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -2610,10 +4140,25 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>EE 406 or equivalent, and graduate standing or consent of instructor.</t>
+          <t>EE 406 or equivalent, and graduate standing or consent of instructor.</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2637,6 +4182,21 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -2654,10 +4214,25 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CPE/EE 329 or CPE/EE 336, or equivalent, and graduate standing or consent of instructor.</t>
+          <t>CPE/EE 329 or CPE/EE 336, or equivalent, and graduate standing or consent of instructor.</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -2676,10 +4251,25 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CPE/EE 439.</t>
+          <t>CPE/EE 439.</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2698,10 +4288,25 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CPE/EE 329 or CPE/EE 336, and graduate standing.</t>
+          <t>CPE/EE 329 or CPE/EE 336, and graduate standing.</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -2720,10 +4325,25 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>PHYS 412 or equivalent, and graduate standing or consent of instructor.</t>
+          <t>PHYS 412 or equivalent, and graduate standing or consent of instructor.</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2742,10 +4362,25 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>STAT 350 or equivalent, and graduate standing or consent of instructor.</t>
+          <t>STAT 350 or equivalent, and graduate standing or consent of instructor.</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -2764,10 +4399,25 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>EE 314, EE 416, and graduate standing.</t>
+          <t>EE 314, EE 416, and graduate standing.</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2786,10 +4436,25 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>EE 410 or equivalent, and graduate standing or consent of instructor.</t>
+          <t>EE 410 or equivalent, and graduate standing or consent of instructor.</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -2808,10 +4473,25 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CPE 327 or EE 328; EE 525; and graduate standing.</t>
+          <t>CPE 327 or EE 328; EE 525; and graduate standing.</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -2830,10 +4510,25 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>EE 306 or graduate standing.</t>
+          <t>EE 306 or graduate standing.</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2852,10 +4547,25 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>EE 402 or equivalent, EE 314 or equivalent, and graduate standing or consent of instructor.</t>
+          <t>EE 402 or equivalent, EE 314 or equivalent, and graduate standing or consent of instructor.</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2874,10 +4584,25 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CPE 441/EE 431.</t>
+          <t>CPE 441/EE 431.</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -2896,10 +4621,25 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>EE 531/CPE 541.</t>
+          <t>EE 531/CPE 541.</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -2918,10 +4658,25 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>EE 402 or equivalent.</t>
+          <t>EE 402 or equivalent.</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -2940,10 +4695,25 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>EE 402 or equivalent and graduate standing.</t>
+          <t>EE 402 or equivalent and graduate standing.</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2962,10 +4732,25 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CPE/EE 442.</t>
+          <t>CPE/EE 442.</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2984,10 +4769,25 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Graduate standing; EE 431 or EE 524 (EE 524 may be taken concurrently).</t>
+          <t>Graduate standing; EE 431 or EE 524 (EE 524 may be taken concurrently).</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -3011,6 +4811,21 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -3033,6 +4848,21 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -3055,6 +4885,21 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -3077,6 +4922,21 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -3099,6 +4959,21 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -3120,6 +4995,21 @@
         </is>
       </c>
       <c r="D126" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
